--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value927.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value927.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.515539809219814</v>
+        <v>1.003983497619629</v>
       </c>
       <c r="B1">
-        <v>2.26608564867829</v>
+        <v>1.865363597869873</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.595102153509211</v>
+        <v>1.336298584938049</v>
       </c>
       <c r="E1">
-        <v>0.517431189407251</v>
+        <v>1.255057454109192</v>
       </c>
     </row>
   </sheetData>
